--- a/01-numeration/Numération exercice 1.xlsx
+++ b/01-numeration/Numération exercice 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lbesson\Documents\ABC2403_LEO\01-numeration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F78BC0FF-862C-4869-AEAF-8D6C3C1C6127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFD8D7B-E1BB-40DB-90CA-1894DE6A840D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="771" firstSheet="1" activeTab="12" xr2:uid="{8555C91E-4F87-41C1-9A60-1CF9B275B832}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="771" xr2:uid="{8555C91E-4F87-41C1-9A60-1CF9B275B832}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercice 1" sheetId="1" r:id="rId1"/>
@@ -774,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8FA9BC-00C0-46FA-98A2-5BE5065B2D4E}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1030,7 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35659ED8-2A72-40C2-A835-9223760CC76F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
